--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业税金及附加.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1113 +623,1091 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.7423</v>
+        <v>20.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.55616</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63962</v>
+        <v>5.2</v>
       </c>
       <c r="E2" t="n">
-        <v>61.84342</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28026</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>11.17371</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>39.5</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.07894</v>
+        <v>0.1</v>
       </c>
       <c r="L2" t="n">
-        <v>46.44432</v>
+        <v>124.3</v>
       </c>
       <c r="M2" t="n">
-        <v>0.23099</v>
+        <v>0.2</v>
       </c>
       <c r="N2" t="n">
-        <v>16.88747</v>
+        <v>28.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09778</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
-        <v>0.53701</v>
+        <v>0.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.54863</v>
+        <v>11.1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07136000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.28149</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>58.73913</v>
+        <v>127.4</v>
       </c>
       <c r="U2" t="n">
-        <v>12.27149</v>
+        <v>41.2</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>2.29236</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>5.82929</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.85047</v>
+        <v>14.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04415</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.68467</v>
+        <v>4.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.7498</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.32315</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.08023</v>
+        <v>29.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.70943</v>
+        <v>7.7</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6369899999999999</v>
+        <v>2.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.90873</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.83978</v>
+        <v>1.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.67115</v>
+        <v>5.4</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.83564</v>
+        <v>4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.06179</v>
+        <v>0.1</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.6035</v>
+        <v>22.7207</v>
       </c>
       <c r="C3" t="n">
-        <v>1.916</v>
+        <v>1.9552</v>
       </c>
       <c r="D3" t="n">
-        <v>5.8082</v>
+        <v>6.1064</v>
       </c>
       <c r="E3" t="n">
-        <v>120.2026</v>
+        <v>175.1466</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1864</v>
+        <v>4.955</v>
       </c>
       <c r="G3" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>2.9301</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.06510000000000001</v>
+      </c>
       <c r="I3" t="n">
-        <v>27.4969</v>
+        <v>50.1294</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0.1626</v>
+        <v>0.1218</v>
       </c>
       <c r="L3" t="n">
-        <v>96.2152</v>
+        <v>144.4979</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1417</v>
+        <v>0.1432</v>
       </c>
       <c r="N3" t="n">
-        <v>26.1884</v>
+        <v>31.4141</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7259</v>
+        <v>2.0707</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3609</v>
+        <v>0.3399</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.3746</v>
+        <v>12.9254</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2071</v>
+        <v>0.3399</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4433</v>
+        <v>4.4588</v>
       </c>
       <c r="T3" t="n">
-        <v>103.866</v>
+        <v>149.4959</v>
       </c>
       <c r="U3" t="n">
-        <v>29.2227</v>
+        <v>52.2001</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>1.9879</v>
+        <v>2.3935</v>
       </c>
       <c r="X3" t="n">
-        <v>7.4143</v>
+        <v>9.5397</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.6128</v>
+        <v>17.7233</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2396</v>
+        <v>0.4942</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.971</v>
+        <v>5.2614</v>
       </c>
       <c r="AB3" t="n">
-        <v>29.6643</v>
+        <v>43.5124</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.6216</v>
+        <v>1.789</v>
       </c>
       <c r="AD3" t="n">
-        <v>20.929</v>
+        <v>32.1906</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.6277</v>
+        <v>7.0315</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.486</v>
+        <v>2.5013</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7119</v>
+        <v>0.6848</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.2315</v>
+        <v>1.178</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.4061</v>
+        <v>6.4585</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.6039</v>
-      </c>
-      <c r="AK3" t="inlineStr"/>
+        <v>4.095</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0799</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.38373</v>
+        <v>25.36464</v>
       </c>
       <c r="C4" t="n">
-        <v>1.66075</v>
+        <v>2.03462</v>
       </c>
       <c r="D4" t="n">
-        <v>4.77956</v>
+        <v>5.75929</v>
       </c>
       <c r="E4" t="n">
-        <v>121.63251</v>
+        <v>182.83692</v>
       </c>
       <c r="F4" t="n">
-        <v>1.58085</v>
+        <v>5.70056</v>
       </c>
       <c r="G4" t="n">
-        <v>2.00032</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>3.32644</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08893</v>
+      </c>
       <c r="I4" t="n">
-        <v>29.71008</v>
+        <v>54.77206</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0.05118</v>
+        <v>0.12007</v>
       </c>
       <c r="L4" t="n">
-        <v>99.64306999999999</v>
+        <v>153.17963</v>
       </c>
       <c r="M4" t="n">
-        <v>0.20809</v>
+        <v>0.11783</v>
       </c>
       <c r="N4" t="n">
-        <v>25.80081</v>
+        <v>32.36855</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45713</v>
+        <v>2.25022</v>
       </c>
       <c r="P4" t="n">
-        <v>0.36216</v>
+        <v>0.33594</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.98634</v>
+        <v>12.1989</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2034</v>
+        <v>0.20008</v>
       </c>
       <c r="S4" t="n">
-        <v>3.34263</v>
+        <v>4.11598</v>
       </c>
       <c r="T4" t="n">
-        <v>104.24846</v>
+        <v>154.14584</v>
       </c>
       <c r="U4" t="n">
-        <v>31.16721</v>
+        <v>57.02228</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>1.87863</v>
+        <v>2.25918</v>
       </c>
       <c r="X4" t="n">
-        <v>6.68485</v>
+        <v>9.26313</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.0031</v>
+        <v>17.45839</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3015</v>
+        <v>0.55357</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.13812</v>
+        <v>5.36792</v>
       </c>
       <c r="AB4" t="n">
-        <v>31.67272</v>
+        <v>46.17603</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.62038</v>
+        <v>1.72911</v>
       </c>
       <c r="AD4" t="n">
-        <v>22.46541</v>
+        <v>34.41716</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.87125</v>
+        <v>7.45349</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.71568</v>
+        <v>2.57627</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.67699</v>
+        <v>0.65065</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.98896</v>
+        <v>1.16712</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.36586</v>
+        <v>5.89093</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.38967</v>
+        <v>4.20351</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05556</v>
+        <v>0.07681</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.1</v>
+        <v>30.03808</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8</v>
+        <v>1.69977</v>
       </c>
       <c r="D5" t="n">
-        <v>5.2</v>
+        <v>6.00003</v>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>187.16437</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.77765</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>4.08691</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06415</v>
+      </c>
       <c r="I5" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.1</v>
-      </c>
+        <v>62.76929</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06992</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>124.3</v>
+        <v>157.23956</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>0.05559</v>
       </c>
       <c r="N5" t="n">
-        <v>28.9</v>
+        <v>24.68092</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>5.39865</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.1754</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.1</v>
+        <v>12.24464</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3</v>
+        <v>0.17055</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>4.31014</v>
       </c>
       <c r="T5" t="n">
-        <v>127.4</v>
+        <v>153.03938</v>
       </c>
       <c r="U5" t="n">
-        <v>41.2</v>
+        <v>68.16794</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.2</v>
+        <v>1.97347</v>
       </c>
       <c r="X5" t="n">
-        <v>7.8</v>
+        <v>9.051360000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.6</v>
+        <v>17.68017</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3</v>
+        <v>0.54386</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.3</v>
+        <v>6.04156</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51.93406</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.7</v>
+        <v>1.3217</v>
       </c>
       <c r="AD5" t="n">
-        <v>29.2</v>
+        <v>42.24283</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.7</v>
+        <v>5.54757</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.3</v>
+        <v>2.82196</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7</v>
+        <v>0.31985</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.1</v>
+        <v>0.62138</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.4</v>
+        <v>6.41413</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3.32363</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1</v>
+        <v>0.05752</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.7207</v>
+        <v>31.16138</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9552</v>
+        <v>1.31852</v>
       </c>
       <c r="D6" t="n">
-        <v>6.1064</v>
+        <v>5.64947</v>
       </c>
       <c r="E6" t="n">
-        <v>175.1466</v>
+        <v>190.0764</v>
       </c>
       <c r="F6" t="n">
-        <v>4.955</v>
+        <v>1.47253</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9301</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.29945</v>
       </c>
       <c r="I6" t="n">
-        <v>50.1294</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>66.62399000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02174</v>
+      </c>
       <c r="K6" t="n">
-        <v>0.1218</v>
+        <v>0.0251</v>
       </c>
       <c r="L6" t="n">
-        <v>144.4979</v>
+        <v>156.92951</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1432</v>
+        <v>0.06762</v>
       </c>
       <c r="N6" t="n">
-        <v>31.4141</v>
+        <v>22.25284</v>
       </c>
       <c r="O6" t="n">
-        <v>2.0707</v>
+        <v>5.6517</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3399</v>
+        <v>0.16474</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.9254</v>
+        <v>11.51102</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3399</v>
+        <v>0.22273</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4588</v>
+        <v>4.02085</v>
       </c>
       <c r="T6" t="n">
-        <v>149.4959</v>
+        <v>155.16912</v>
       </c>
       <c r="U6" t="n">
-        <v>52.2001</v>
+        <v>72.27569</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>2.3935</v>
+        <v>3.00855</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5397</v>
+        <v>8.342930000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.7233</v>
+        <v>21.63583</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4942</v>
+        <v>0.73761</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.2614</v>
+        <v>9.525</v>
       </c>
       <c r="AB6" t="n">
-        <v>43.5124</v>
+        <v>51.1571</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.789</v>
+        <v>1.12922</v>
       </c>
       <c r="AD6" t="n">
-        <v>32.1906</v>
+        <v>42.4329</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.0315</v>
+        <v>4.79932</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.5013</v>
+        <v>2.79566</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6848</v>
+        <v>0.28473</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.178</v>
+        <v>0.49288</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.4585</v>
+        <v>6.09624</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.095</v>
+        <v>2.8975</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0799</v>
+        <v>0.02727</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.36464</v>
+        <v>31.8889</v>
       </c>
       <c r="C7" t="n">
-        <v>2.03462</v>
+        <v>1.3037</v>
       </c>
       <c r="D7" t="n">
-        <v>5.75929</v>
+        <v>5.3521</v>
       </c>
       <c r="E7" t="n">
-        <v>182.83692</v>
+        <v>190.0117</v>
       </c>
       <c r="F7" t="n">
-        <v>5.70056</v>
+        <v>1.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3.32644</v>
+        <v>4.0834</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08893</v>
+        <v>0.3943</v>
       </c>
       <c r="I7" t="n">
-        <v>54.77206</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>69.74639999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3807</v>
+      </c>
       <c r="K7" t="n">
-        <v>0.12007</v>
+        <v>0.032</v>
       </c>
       <c r="L7" t="n">
-        <v>153.17963</v>
+        <v>160.5011</v>
       </c>
       <c r="M7" t="n">
-        <v>0.11783</v>
+        <v>0.0394</v>
       </c>
       <c r="N7" t="n">
-        <v>32.36855</v>
+        <v>21.402</v>
       </c>
       <c r="O7" t="n">
-        <v>2.25022</v>
+        <v>6.107</v>
       </c>
       <c r="P7" t="n">
-        <v>0.33594</v>
+        <v>0.229</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.1989</v>
+        <v>10.9218</v>
       </c>
       <c r="R7" t="n">
-        <v>0.20008</v>
+        <v>0.2164</v>
       </c>
       <c r="S7" t="n">
-        <v>4.11598</v>
+        <v>3.6556</v>
       </c>
       <c r="T7" t="n">
-        <v>154.14584</v>
+        <v>154.0396</v>
       </c>
       <c r="U7" t="n">
-        <v>57.02228</v>
+        <v>75.85380000000001</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>2.25918</v>
+        <v>2.3876</v>
       </c>
       <c r="X7" t="n">
-        <v>9.26313</v>
+        <v>8.3194</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.45839</v>
+        <v>18.589</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.55357</v>
+        <v>0.4516</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.36792</v>
+        <v>7.0499</v>
       </c>
       <c r="AB7" t="n">
-        <v>46.17603</v>
+        <v>52.545</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.72911</v>
+        <v>1.1328</v>
       </c>
       <c r="AD7" t="n">
-        <v>34.41716</v>
+        <v>44.3607</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.45349</v>
+        <v>4.4316</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.57627</v>
+        <v>2.6207</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.65065</v>
+        <v>0.3281</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.16712</v>
+        <v>0.493</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.89093</v>
+        <v>6.0644</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.20351</v>
+        <v>2.4962</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.07681</v>
+        <v>0.0276</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.03808</v>
+        <v>19.2726</v>
       </c>
       <c r="C8" t="n">
-        <v>1.69977</v>
+        <v>0.4764</v>
       </c>
       <c r="D8" t="n">
-        <v>6.00003</v>
+        <v>2.5016</v>
       </c>
       <c r="E8" t="n">
-        <v>187.16437</v>
+        <v>101.7345</v>
       </c>
       <c r="F8" t="n">
-        <v>1.77765</v>
+        <v>0.6241</v>
       </c>
       <c r="G8" t="n">
-        <v>4.08691</v>
+        <v>2.255</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06415</v>
+        <v>0.137</v>
       </c>
       <c r="I8" t="n">
-        <v>62.76929</v>
+        <v>36.2442</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06992</v>
+        <v>0.1586</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>157.23956</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.05559</v>
-      </c>
+        <v>86.1867</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>24.68092</v>
+        <v>9.816800000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>5.39865</v>
+        <v>3.1629</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1754</v>
+        <v>0.0655</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.24464</v>
+        <v>4.776</v>
       </c>
       <c r="R8" t="n">
-        <v>0.17055</v>
+        <v>0.0896</v>
       </c>
       <c r="S8" t="n">
-        <v>4.31014</v>
+        <v>1.5718</v>
       </c>
       <c r="T8" t="n">
-        <v>153.03938</v>
+        <v>80.20659999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>68.16794</v>
+        <v>39.4067</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>1.97347</v>
+        <v>1.4131</v>
       </c>
       <c r="X8" t="n">
-        <v>9.051360000000001</v>
+        <v>4.4598</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.68017</v>
+        <v>10.7718</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.54386</v>
+        <v>0.2621</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.04156</v>
+        <v>4.4783</v>
       </c>
       <c r="AB8" t="n">
-        <v>51.93406</v>
+        <v>30.939</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3217</v>
+        <v>0.8173</v>
       </c>
       <c r="AD8" t="n">
-        <v>42.24283</v>
+        <v>25.247</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.54757</v>
+        <v>3.185</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.82196</v>
+        <v>1.6899</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.31985</v>
+        <v>0.104</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.62138</v>
+        <v>0.2363</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.41413</v>
+        <v>3.8007</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.32363</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.05752</v>
-      </c>
+        <v>1.2597</v>
+      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.16138</v>
+        <v>11.716</v>
       </c>
       <c r="C9" t="n">
-        <v>1.31852</v>
+        <v>0.259</v>
       </c>
       <c r="D9" t="n">
-        <v>5.64947</v>
+        <v>2.293</v>
       </c>
       <c r="E9" t="n">
-        <v>190.0764</v>
+        <v>68.93989999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1.47253</v>
+        <v>0.2889</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>1.756</v>
       </c>
       <c r="H9" t="n">
-        <v>0.29945</v>
+        <v>0.073</v>
       </c>
       <c r="I9" t="n">
-        <v>66.62399000000001</v>
+        <v>25.76</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02174</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0251</v>
-      </c>
+        <v>0.127</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>156.92951</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.06762</v>
-      </c>
+        <v>56.788</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>22.25284</v>
+        <v>6.298</v>
       </c>
       <c r="O9" t="n">
-        <v>5.6517</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.16474</v>
-      </c>
+        <v>3.265</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>11.51102</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.22273</v>
-      </c>
+        <v>3.912</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>4.02085</v>
+        <v>1.239</v>
       </c>
       <c r="T9" t="n">
-        <v>155.16912</v>
+        <v>55.468</v>
       </c>
       <c r="U9" t="n">
-        <v>72.27569</v>
+        <v>29.025</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.00855</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>8.342930000000001</v>
+        <v>3.84</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.63583</v>
+        <v>8.239000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.73761</v>
+        <v>0.167</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.525</v>
+        <v>3.292</v>
       </c>
       <c r="AB9" t="n">
-        <v>51.1571</v>
+        <v>17.7945</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.12922</v>
+        <v>0.528</v>
       </c>
       <c r="AD9" t="n">
-        <v>42.4329</v>
+        <v>14.233</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.79932</v>
+        <v>2.038</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.79566</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.28473</v>
-      </c>
+        <v>0.996</v>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>0.49288</v>
+        <v>0.136</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.09624</v>
+        <v>2.594</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.8975</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.02727</v>
-      </c>
+        <v>0.613</v>
+      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.8889</v>
+        <v>9.6</v>
       </c>
       <c r="C10" t="n">
-        <v>1.3037</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3521</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>190.0117</v>
+        <v>72.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1.32</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.0834</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3943</v>
+        <v>0.1</v>
       </c>
       <c r="I10" t="n">
-        <v>69.74639999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.3807</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.032</v>
-      </c>
+        <v>23.5</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>160.5011</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0394</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>21.402</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>6.107</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.229</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>10.9218</v>
+        <v>3.6</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2164</v>
+        <v>0.1</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6556</v>
+        <v>1.1</v>
       </c>
       <c r="T10" t="n">
-        <v>154.0396</v>
+        <v>61.9</v>
       </c>
       <c r="U10" t="n">
-        <v>75.85380000000001</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1</v>
+      </c>
       <c r="W10" t="n">
-        <v>2.3876</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>8.3194</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.589</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.4516</v>
+        <v>0.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.0499</v>
+        <v>3.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>52.545</v>
+        <v>16.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.1328</v>
+        <v>0.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>44.3607</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.4316</v>
+        <v>1.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.6207</v>
+        <v>0.7</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3281</v>
+        <v>0.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.493</v>
+        <v>0.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.0644</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.4962</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.0276</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.2726</v>
+        <v>14.1355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4764</v>
+        <v>0.205</v>
       </c>
       <c r="D11" t="n">
-        <v>2.5016</v>
+        <v>2.5791</v>
       </c>
       <c r="E11" t="n">
-        <v>101.7345</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6241</v>
-      </c>
+        <v>85.63549999999999</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>2.255</v>
+        <v>3.7564</v>
       </c>
       <c r="H11" t="n">
-        <v>0.137</v>
+        <v>0.1049</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2442</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1586</v>
-      </c>
+        <v>29.848</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>86.1867</v>
+        <v>70.5492</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>9.816800000000001</v>
+        <v>5.9938</v>
       </c>
       <c r="O11" t="n">
-        <v>3.1629</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.0655</v>
-      </c>
+        <v>4.3976</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>4.776</v>
+        <v>5.3137</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0896</v>
+        <v>0.7663</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5718</v>
+        <v>1.6587</v>
       </c>
       <c r="T11" t="n">
-        <v>80.20659999999999</v>
+        <v>67.5874</v>
       </c>
       <c r="U11" t="n">
-        <v>39.4067</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>34.2454</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.153</v>
+      </c>
       <c r="W11" t="n">
-        <v>1.4131</v>
+        <v>0.7483</v>
       </c>
       <c r="X11" t="n">
-        <v>4.4598</v>
+        <v>4.5761</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.7718</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.2621</v>
-      </c>
+        <v>9.772500000000001</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>4.4783</v>
+        <v>4.3925</v>
       </c>
       <c r="AB11" t="n">
-        <v>30.939</v>
+        <v>22.7069</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8173</v>
+        <v>0.3318</v>
       </c>
       <c r="AD11" t="n">
-        <v>25.247</v>
+        <v>19.7864</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.185</v>
+        <v>1.5378</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.6899</v>
+        <v>1.0508</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.104</v>
+        <v>0.0606</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.2363</v>
+        <v>0.1467</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.8007</v>
+        <v>6.9669</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.2597</v>
+        <v>0.4265</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -1737,101 +1715,97 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.716</v>
+        <v>9.0471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.259</v>
+        <v>0.1114</v>
       </c>
       <c r="D12" t="n">
-        <v>2.293</v>
+        <v>2.2306</v>
       </c>
       <c r="E12" t="n">
-        <v>68.93989999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2889</v>
-      </c>
+        <v>56.5211</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>1.756</v>
+        <v>1.7148</v>
       </c>
       <c r="H12" t="n">
-        <v>0.073</v>
+        <v>0.0722</v>
       </c>
       <c r="I12" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.127</v>
-      </c>
+        <v>17.3444</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>56.788</v>
+        <v>43.676</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>6.298</v>
+        <v>4.1962</v>
       </c>
       <c r="O12" t="n">
-        <v>3.265</v>
+        <v>3.3042</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>3.912</v>
+        <v>3.651</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.239</v>
+        <v>1.2007</v>
       </c>
       <c r="T12" t="n">
-        <v>55.468</v>
+        <v>45.6876</v>
       </c>
       <c r="U12" t="n">
-        <v>29.025</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>20.6487</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.06560000000000001</v>
+      </c>
       <c r="W12" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.4527</v>
       </c>
       <c r="X12" t="n">
-        <v>3.84</v>
+        <v>3.5553</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.239000000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.167</v>
-      </c>
+        <v>9.1943</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>3.292</v>
+        <v>5.1613</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.7945</v>
+        <v>15.2746</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.528</v>
+        <v>0.2287</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.233</v>
+        <v>13.9684</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.038</v>
+        <v>0.8359</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.996</v>
+        <v>0.2418</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>0.136</v>
+        <v>0.2566</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.594</v>
+        <v>3.0083</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.613</v>
+        <v>0.2369</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -1839,308 +1813,112 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.6</v>
+        <v>9.959899999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2</v>
+        <v>0.1482</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>2.2775</v>
       </c>
       <c r="E13" t="n">
-        <v>72.8</v>
+        <v>68.9615</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.0017</v>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.7085</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.1618</v>
       </c>
       <c r="I13" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>23.046</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0106</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>60</v>
+        <v>54.8707</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>4.7498</v>
       </c>
       <c r="O13" t="n">
-        <v>3.9</v>
+        <v>4.8849</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>3.6</v>
+        <v>4.4325</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1</v>
+        <v>0.0443</v>
       </c>
       <c r="S13" t="n">
-        <v>1.1</v>
+        <v>1.8007</v>
       </c>
       <c r="T13" t="n">
-        <v>61.9</v>
+        <v>57.1697</v>
       </c>
       <c r="U13" t="n">
-        <v>27.3</v>
+        <v>27.931</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1</v>
+        <v>0.1186</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0.7248</v>
       </c>
       <c r="X13" t="n">
-        <v>4.2</v>
+        <v>4.6637</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6584</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1</v>
+        <v>0.0255</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.9</v>
+        <v>4.2338</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.8</v>
+        <v>18.5777</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3</v>
+        <v>0.2088</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>17.0644</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.2</v>
+        <v>1.0086</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.7</v>
+        <v>0.2958</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1</v>
+        <v>0.036</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1</v>
+        <v>0.1533</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>3.0997</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.5</v>
+        <v>0.3216</v>
       </c>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14.1355</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.5791</v>
-      </c>
-      <c r="E14" t="n">
-        <v>85.63549999999999</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>3.7564</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1049</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29.848</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>70.5492</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>5.9938</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4.3976</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>5.3137</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.7663</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.6587</v>
-      </c>
-      <c r="T14" t="n">
-        <v>67.5874</v>
-      </c>
-      <c r="U14" t="n">
-        <v>34.2454</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.7483</v>
-      </c>
-      <c r="X14" t="n">
-        <v>4.5761</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.772500000000001</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>4.3925</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22.7069</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.3318</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>19.7864</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.5378</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1.0508</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.0606</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.1467</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6.9669</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.4265</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9.0471</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1114</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.2306</v>
-      </c>
-      <c r="E15" t="n">
-        <v>56.5211</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>1.7148</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0722</v>
-      </c>
-      <c r="I15" t="n">
-        <v>17.3444</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>43.676</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>4.1962</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3.3042</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>3.651</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1.2007</v>
-      </c>
-      <c r="T15" t="n">
-        <v>45.6876</v>
-      </c>
-      <c r="U15" t="n">
-        <v>20.6487</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.06560000000000001</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.4527</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3.5553</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.1943</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>5.1613</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15.2746</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.2287</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>13.9684</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.8359</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.2418</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>0.2566</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>3.0083</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.2369</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>0.005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
